--- a/Output/15-07-09/BarCoding.xlsx
+++ b/Output/15-07-09/BarCoding.xlsx
@@ -455,19 +455,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>74.56</v>
+        <v>75.31</v>
       </c>
       <c r="C8" t="n">
-        <v>78.89</v>
+        <v>78.96</v>
       </c>
       <c r="D8" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="E8" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="F8" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
   </sheetData>
@@ -628,19 +628,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>74.56</v>
+        <v>75.31</v>
       </c>
       <c r="C8" t="n">
-        <v>78.89</v>
+        <v>78.96</v>
       </c>
       <c r="D8" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="E8" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="F8" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
   </sheetData>
@@ -771,13 +771,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="C9" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="D9" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
   </sheetData>
@@ -818,19 +818,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>74.56</v>
+        <v>75.31</v>
       </c>
       <c r="C2" t="n">
-        <v>78.89</v>
+        <v>78.96</v>
       </c>
       <c r="D2" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="E2" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="F2" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="3">
@@ -1129,19 +1129,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>74.56</v>
+        <v>75.31</v>
       </c>
       <c r="C4" t="n">
-        <v>78.89</v>
+        <v>78.96</v>
       </c>
       <c r="D4" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="E4" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="F4" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="5">
@@ -2200,19 +2200,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>74.56</v>
+        <v>75.31</v>
       </c>
       <c r="C2" t="n">
-        <v>78.89</v>
+        <v>78.96</v>
       </c>
       <c r="D2" t="n">
-        <v>81.24</v>
+        <v>81.35</v>
       </c>
       <c r="E2" t="n">
-        <v>82.15</v>
+        <v>82.23</v>
       </c>
       <c r="F2" t="n">
-        <v>84.08</v>
+        <v>84.17</v>
       </c>
     </row>
   </sheetData>
